--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2309.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2309.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.487629390729093</v>
+        <v>0.8378782272338867</v>
       </c>
       <c r="B1">
-        <v>2.022379210303249</v>
+        <v>1.254250645637512</v>
       </c>
       <c r="C1">
-        <v>1.78360443623695</v>
+        <v>2.292247772216797</v>
       </c>
       <c r="D1">
-        <v>1.950465340351277</v>
+        <v>2.413295745849609</v>
       </c>
       <c r="E1">
-        <v>2.408223763692867</v>
+        <v>1.966107845306396</v>
       </c>
     </row>
   </sheetData>
